--- a/data/OI_T-2_vs_type_disagg_20250827_v3.xlsx
+++ b/data/OI_T-2_vs_type_disagg_20250827_v3.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_2EA9EBAC856D6124592D4CF15DA9009A421E6914" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_2EA9EBAC1B352627FF2C4C92752A375A431E690C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{608F44EE-84E3-40C3-AE00-4EE2F4D4DCEC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="2895" windowWidth="28740" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T-2_vs_All" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -728,7 +741,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -775,22 +790,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>17584</v>
+        <v>17654</v>
       </c>
       <c r="C2">
-        <v>36.700000000000003</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="D2">
         <v>12862</v>
       </c>
       <c r="E2">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="F2">
         <v>16998</v>
       </c>
       <c r="G2">
-        <v>29.1</v>
+        <v>29.6</v>
       </c>
       <c r="H2">
         <v>13624</v>
@@ -805,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>17584</v>
+        <v>17654</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -813,22 +828,22 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3973</v>
+        <v>4170</v>
       </c>
       <c r="C3">
-        <v>13.9</v>
+        <v>19.5</v>
       </c>
       <c r="D3">
         <v>3489</v>
       </c>
       <c r="E3">
-        <v>-17.899999999999999</v>
+        <v>-13.8</v>
       </c>
       <c r="F3">
         <v>4840</v>
       </c>
       <c r="G3">
-        <v>46.1</v>
+        <v>53.3</v>
       </c>
       <c r="H3">
         <v>2720</v>
@@ -843,7 +858,7 @@
         <v>8.33</v>
       </c>
       <c r="L3">
-        <v>31784</v>
+        <v>34736</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -851,22 +866,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2092</v>
+        <v>2177</v>
       </c>
       <c r="C4">
-        <v>35.299999999999997</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="D4">
         <v>1546</v>
       </c>
       <c r="E4">
-        <v>147.6</v>
+        <v>157.6</v>
       </c>
       <c r="F4">
         <v>845</v>
       </c>
       <c r="G4">
-        <v>-24</v>
+        <v>-20.9</v>
       </c>
       <c r="H4">
         <v>2751</v>
@@ -881,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>2092</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -889,22 +904,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>36996</v>
+        <v>37665</v>
       </c>
       <c r="C5">
-        <v>21.5</v>
+        <v>23.7</v>
       </c>
       <c r="D5">
         <v>30446</v>
       </c>
       <c r="E5">
-        <v>-18.2</v>
+        <v>-16.7</v>
       </c>
       <c r="F5">
         <v>45218</v>
       </c>
       <c r="G5">
-        <v>0.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H5">
         <v>36846</v>
@@ -919,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>36996</v>
+        <v>37665</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -927,22 +942,22 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>16699</v>
+        <v>16924</v>
       </c>
       <c r="C6">
-        <v>-25</v>
+        <v>-23.9</v>
       </c>
       <c r="D6">
         <v>22251</v>
       </c>
       <c r="E6">
-        <v>-5</v>
+        <v>-3.7</v>
       </c>
       <c r="F6">
         <v>17574</v>
       </c>
       <c r="G6">
-        <v>18.5</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="H6">
         <v>14089</v>
@@ -957,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>16699</v>
+        <v>16924</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -965,22 +980,22 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>4250</v>
+        <v>4384</v>
       </c>
       <c r="C7">
-        <v>36.4</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="D7">
         <v>3116</v>
       </c>
       <c r="E7">
-        <v>42.1</v>
+        <v>46.6</v>
       </c>
       <c r="F7">
         <v>2990</v>
       </c>
       <c r="G7">
-        <v>30.6</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="H7">
         <v>3254</v>
@@ -995,7 +1010,7 @@
         <v>6.35</v>
       </c>
       <c r="L7">
-        <v>25500</v>
+        <v>27838</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1003,22 +1018,22 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>5453</v>
+        <v>5475</v>
       </c>
       <c r="C8">
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="D8">
         <v>5337</v>
       </c>
       <c r="E8">
-        <v>37.4</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>3968</v>
       </c>
       <c r="G8">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>3884</v>
@@ -1033,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>5453</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1041,22 +1056,22 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>3857</v>
+        <v>3798</v>
       </c>
       <c r="C9">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="D9">
         <v>3700</v>
       </c>
       <c r="E9">
-        <v>29.1</v>
+        <v>27.1</v>
       </c>
       <c r="F9">
         <v>2988</v>
       </c>
       <c r="G9">
-        <v>15.1</v>
+        <v>13.3</v>
       </c>
       <c r="H9">
         <v>3352</v>
@@ -1071,7 +1086,7 @@
         <v>6.35</v>
       </c>
       <c r="L9">
-        <v>23142</v>
+        <v>24117</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1079,22 +1094,22 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="C10">
-        <v>18.7</v>
+        <v>22.3</v>
       </c>
       <c r="D10">
         <v>358</v>
       </c>
       <c r="E10">
-        <v>-17.2</v>
+        <v>-14.6</v>
       </c>
       <c r="F10">
         <v>513</v>
       </c>
       <c r="G10">
-        <v>7.9</v>
+        <v>11.2</v>
       </c>
       <c r="H10">
         <v>394</v>
@@ -1109,7 +1124,7 @@
         <v>8.33</v>
       </c>
       <c r="L10">
-        <v>3400</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1117,22 +1132,22 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C11">
-        <v>-12.4</v>
+        <v>-12.5</v>
       </c>
       <c r="D11">
         <v>590</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
         <v>512</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="H11">
         <v>438</v>
@@ -1147,7 +1162,7 @@
         <v>8.9</v>
       </c>
       <c r="L11">
-        <v>4653</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1155,25 +1170,25 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>137693</v>
+        <v>128785</v>
       </c>
       <c r="C12">
-        <v>0.8</v>
+        <v>-1.9</v>
       </c>
       <c r="D12">
-        <v>136667</v>
+        <v>131339</v>
       </c>
       <c r="E12">
-        <v>10.4</v>
+        <v>16.8</v>
       </c>
       <c r="F12">
-        <v>124741</v>
+        <v>110268</v>
       </c>
       <c r="G12">
-        <v>19.899999999999999</v>
+        <v>23</v>
       </c>
       <c r="H12">
-        <v>114827</v>
+        <v>104709</v>
       </c>
       <c r="I12" t="s">
         <v>62</v>
@@ -1185,7 +1200,7 @@
         <v>7.45</v>
       </c>
       <c r="L12">
-        <v>963851</v>
+        <v>959448</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1193,22 +1208,22 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>9400</v>
+        <v>9298</v>
       </c>
       <c r="C13">
-        <v>-2.9</v>
+        <v>-3.9</v>
       </c>
       <c r="D13">
         <v>9676</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>16.7</v>
       </c>
       <c r="F13">
         <v>7968</v>
       </c>
       <c r="G13">
-        <v>-3</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="H13">
         <v>9692</v>
@@ -1223,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>9400</v>
+        <v>9298</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1231,22 +1246,22 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>1650</v>
+        <v>1639</v>
       </c>
       <c r="C14">
-        <v>11.7</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>1477</v>
       </c>
       <c r="E14">
-        <v>-35.1</v>
+        <v>-35.5</v>
       </c>
       <c r="F14">
         <v>2543</v>
       </c>
       <c r="G14">
-        <v>18.2</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="H14">
         <v>1396</v>
@@ -1261,7 +1276,7 @@
         <v>8.33</v>
       </c>
       <c r="L14">
-        <v>13200</v>
+        <v>13652</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1269,22 +1284,22 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>40995</v>
+        <v>40517</v>
       </c>
       <c r="C15">
-        <v>10.8</v>
+        <v>9.5</v>
       </c>
       <c r="D15">
         <v>37004</v>
       </c>
       <c r="E15">
-        <v>-31.8</v>
+        <v>-32.6</v>
       </c>
       <c r="F15">
         <v>60152</v>
       </c>
       <c r="G15">
-        <v>-8.5</v>
+        <v>-9.6</v>
       </c>
       <c r="H15">
         <v>44817</v>
@@ -1299,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>40995</v>
+        <v>40517</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1383,22 +1398,22 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C18">
-        <v>-38.6</v>
+        <v>-41.4</v>
       </c>
       <c r="D18">
         <v>290</v>
       </c>
       <c r="E18">
-        <v>-36.700000000000003</v>
+        <v>-39.5</v>
       </c>
       <c r="F18">
         <v>281</v>
       </c>
       <c r="G18">
-        <v>-18.7</v>
+        <v>-22.4</v>
       </c>
       <c r="H18">
         <v>219</v>
@@ -1413,7 +1428,7 @@
         <v>7.89</v>
       </c>
       <c r="L18">
-        <v>1424</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1459,22 +1474,22 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>2525</v>
+        <v>2553</v>
       </c>
       <c r="C20">
-        <v>22.3</v>
+        <v>23.7</v>
       </c>
       <c r="D20">
         <v>2064</v>
       </c>
       <c r="E20">
-        <v>26.8</v>
+        <v>28.2</v>
       </c>
       <c r="F20">
         <v>1991</v>
       </c>
       <c r="G20">
-        <v>64</v>
+        <v>65.8</v>
       </c>
       <c r="H20">
         <v>1540</v>
@@ -1489,7 +1504,7 @@
         <v>8.9</v>
       </c>
       <c r="L20">
-        <v>22725</v>
+        <v>22721</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1497,22 +1512,22 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>2575</v>
+        <v>2512</v>
       </c>
       <c r="C21">
-        <v>12.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D21">
         <v>2288</v>
       </c>
       <c r="E21">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>1570</v>
       </c>
       <c r="G21">
-        <v>59.5</v>
+        <v>55.6</v>
       </c>
       <c r="H21">
         <v>1614</v>
@@ -1527,7 +1542,7 @@
         <v>6.35</v>
       </c>
       <c r="L21">
-        <v>15450</v>
+        <v>15951</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1535,22 +1550,22 @@
         <v>32</v>
       </c>
       <c r="B22">
-        <v>5176</v>
+        <v>4913</v>
       </c>
       <c r="C22">
-        <v>27.6</v>
+        <v>21.2</v>
       </c>
       <c r="D22">
         <v>4055</v>
       </c>
       <c r="E22">
-        <v>21.7</v>
+        <v>15.5</v>
       </c>
       <c r="F22">
         <v>4253</v>
       </c>
       <c r="G22">
-        <v>77.599999999999994</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="H22">
         <v>2914</v>
@@ -1565,7 +1580,7 @@
         <v>6.35</v>
       </c>
       <c r="L22">
-        <v>31056</v>
+        <v>31197</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1603,7 +1618,7 @@
         <v>6.35</v>
       </c>
       <c r="L23">
-        <v>1326</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1641,7 +1656,7 @@
         <v>6.35</v>
       </c>
       <c r="L24">
-        <v>2268</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1649,22 +1664,22 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>2066</v>
+        <v>2189</v>
       </c>
       <c r="C25">
-        <v>66.599999999999994</v>
+        <v>76.5</v>
       </c>
       <c r="D25">
         <v>1240</v>
       </c>
       <c r="E25">
-        <v>83.8</v>
+        <v>94.8</v>
       </c>
       <c r="F25">
         <v>1124</v>
       </c>
       <c r="G25">
-        <v>161.19999999999999</v>
+        <v>176.7</v>
       </c>
       <c r="H25">
         <v>791</v>
@@ -1679,7 +1694,7 @@
         <v>6.35</v>
       </c>
       <c r="L25">
-        <v>12396</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1687,22 +1702,22 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>7253</v>
+        <v>7514</v>
       </c>
       <c r="C26">
-        <v>4.0999999999999996</v>
+        <v>7.9</v>
       </c>
       <c r="D26">
         <v>6966</v>
       </c>
       <c r="E26">
-        <v>6.9</v>
+        <v>10.7</v>
       </c>
       <c r="F26">
         <v>6786</v>
       </c>
       <c r="G26">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="H26">
         <v>6960</v>
@@ -1717,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>7253</v>
+        <v>7514</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1725,22 +1740,22 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>10116</v>
+        <v>9753</v>
       </c>
       <c r="C27">
-        <v>-14.6</v>
+        <v>-17.7</v>
       </c>
       <c r="D27">
         <v>11850</v>
       </c>
       <c r="E27">
-        <v>24.8</v>
+        <v>20.3</v>
       </c>
       <c r="F27">
         <v>8105</v>
       </c>
       <c r="G27">
-        <v>19.399999999999999</v>
+        <v>15.1</v>
       </c>
       <c r="H27">
         <v>8471</v>
@@ -1755,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>10116</v>
+        <v>9753</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1763,22 +1778,22 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>4258</v>
+        <v>4198</v>
       </c>
       <c r="C28">
-        <v>-9.8000000000000007</v>
+        <v>-11</v>
       </c>
       <c r="D28">
         <v>4719</v>
       </c>
       <c r="E28">
-        <v>22.2</v>
+        <v>20.5</v>
       </c>
       <c r="F28">
         <v>3485</v>
       </c>
       <c r="G28">
-        <v>67.5</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="H28">
         <v>2542</v>
@@ -1793,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>4258</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1801,22 +1816,22 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="C29">
-        <v>16.100000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="D29">
         <v>2446</v>
       </c>
       <c r="E29">
-        <v>-3</v>
+        <v>-3.1</v>
       </c>
       <c r="F29">
         <v>2927</v>
       </c>
       <c r="G29">
-        <v>50.1</v>
+        <v>50</v>
       </c>
       <c r="H29">
         <v>1891</v>
@@ -1831,7 +1846,7 @@
         <v>8.9</v>
       </c>
       <c r="L29">
-        <v>25551</v>
+        <v>25240</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1839,22 +1854,22 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>3008</v>
+        <v>2981</v>
       </c>
       <c r="C30">
-        <v>13.8</v>
+        <v>12.8</v>
       </c>
       <c r="D30">
         <v>2643</v>
       </c>
       <c r="E30">
-        <v>12.8</v>
+        <v>11.8</v>
       </c>
       <c r="F30">
         <v>2667</v>
       </c>
       <c r="G30">
-        <v>44.5</v>
+        <v>43.2</v>
       </c>
       <c r="H30">
         <v>2082</v>
@@ -1869,7 +1884,7 @@
         <v>8.9</v>
       </c>
       <c r="L30">
-        <v>27072</v>
+        <v>26530</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1877,22 +1892,22 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="C31">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="D31">
         <v>1283</v>
       </c>
       <c r="E31">
-        <v>-11.7</v>
+        <v>-12.2</v>
       </c>
       <c r="F31">
         <v>1561</v>
       </c>
       <c r="G31">
-        <v>21.6</v>
+        <v>20.9</v>
       </c>
       <c r="H31">
         <v>1134</v>
@@ -1907,7 +1922,7 @@
         <v>8.9</v>
       </c>
       <c r="L31">
-        <v>12411</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1915,22 +1930,22 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>2622</v>
+        <v>2522</v>
       </c>
       <c r="C32">
-        <v>-33.5</v>
+        <v>-36.1</v>
       </c>
       <c r="D32">
         <v>3945</v>
       </c>
       <c r="E32">
-        <v>-20.5</v>
+        <v>-23.6</v>
       </c>
       <c r="F32">
         <v>3299</v>
       </c>
       <c r="G32">
-        <v>-19</v>
+        <v>-22.1</v>
       </c>
       <c r="H32">
         <v>3236</v>
@@ -1945,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>2622</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1953,22 +1968,22 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="C33">
-        <v>-86.7</v>
+        <v>-86.4</v>
       </c>
       <c r="D33">
         <v>5817</v>
       </c>
       <c r="E33">
-        <v>-83.7</v>
+        <v>-83.4</v>
       </c>
       <c r="F33">
         <v>4763</v>
       </c>
       <c r="G33">
-        <v>-74.5</v>
+        <v>-74</v>
       </c>
       <c r="H33">
         <v>3043</v>
@@ -1983,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>776</v>
+        <v>791</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2067,22 +2082,22 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>2544</v>
+        <v>2564</v>
       </c>
       <c r="C36">
-        <v>-20.399999999999999</v>
+        <v>-19.8</v>
       </c>
       <c r="D36">
         <v>3197</v>
       </c>
       <c r="E36">
-        <v>-2.7</v>
+        <v>-2</v>
       </c>
       <c r="F36">
         <v>2615</v>
       </c>
       <c r="G36">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="H36">
         <v>2392</v>
@@ -2097,7 +2112,7 @@
         <v>6.35</v>
       </c>
       <c r="L36">
-        <v>15264</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2140,22 +2155,22 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>19285</v>
+        <v>18547</v>
       </c>
       <c r="C38">
-        <v>-4.3</v>
+        <v>-7.9</v>
       </c>
       <c r="D38">
         <v>20146</v>
       </c>
       <c r="E38">
-        <v>-34.799999999999997</v>
+        <v>-37.299999999999997</v>
       </c>
       <c r="F38">
         <v>29571</v>
       </c>
       <c r="G38">
-        <v>-6.7</v>
+        <v>-10.3</v>
       </c>
       <c r="H38">
         <v>20667</v>
@@ -2170,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>19285</v>
+        <v>18547</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2178,22 +2193,22 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>2279</v>
+        <v>2333</v>
       </c>
       <c r="C39">
-        <v>-16.2</v>
+        <v>-14.2</v>
       </c>
       <c r="D39">
         <v>2720</v>
       </c>
       <c r="E39">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F39">
         <v>1085</v>
       </c>
       <c r="G39">
-        <v>216.5</v>
+        <v>224</v>
       </c>
       <c r="H39">
         <v>720</v>
@@ -2208,7 +2223,7 @@
         <v>6.35</v>
       </c>
       <c r="L39">
-        <v>13674</v>
+        <v>14814</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2216,22 +2231,22 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>11330</v>
+        <v>11558</v>
       </c>
       <c r="C40">
-        <v>-35</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="D40">
         <v>17432</v>
       </c>
       <c r="E40">
-        <v>-25.4</v>
+        <v>-23.9</v>
       </c>
       <c r="F40">
         <v>15179</v>
       </c>
       <c r="G40">
-        <v>-9</v>
+        <v>-7.2</v>
       </c>
       <c r="H40">
         <v>12449</v>
@@ -2246,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="L40">
-        <v>11330</v>
+        <v>11558</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2254,22 +2269,22 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>12708</v>
+        <v>12412</v>
       </c>
       <c r="C41">
-        <v>40.700000000000003</v>
+        <v>37.4</v>
       </c>
       <c r="D41">
         <v>9034</v>
       </c>
       <c r="E41">
-        <v>-3.1</v>
+        <v>-5.4</v>
       </c>
       <c r="F41">
         <v>13115</v>
       </c>
       <c r="G41">
-        <v>11.6</v>
+        <v>9</v>
       </c>
       <c r="H41">
         <v>11392</v>
@@ -2284,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>12708</v>
+        <v>12412</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2292,22 +2307,22 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>5586</v>
+        <v>5684</v>
       </c>
       <c r="C42">
-        <v>-35.200000000000003</v>
+        <v>-34.1</v>
       </c>
       <c r="D42">
         <v>8621</v>
       </c>
       <c r="E42">
-        <v>-5.4</v>
+        <v>-3.8</v>
       </c>
       <c r="F42">
         <v>5906</v>
       </c>
       <c r="G42">
-        <v>31</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="H42">
         <v>4263</v>
@@ -2322,7 +2337,7 @@
         <v>6.35</v>
       </c>
       <c r="L42">
-        <v>33516</v>
+        <v>36093</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2330,22 +2345,22 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>847</v>
+        <v>872</v>
       </c>
       <c r="C43">
-        <v>-19.3</v>
+        <v>-17</v>
       </c>
       <c r="D43">
         <v>1050</v>
       </c>
       <c r="E43">
-        <v>-3.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F43">
         <v>874</v>
       </c>
       <c r="G43">
-        <v>76.5</v>
+        <v>81.7</v>
       </c>
       <c r="H43">
         <v>480</v>
@@ -2360,7 +2375,7 @@
         <v>6.35</v>
       </c>
       <c r="L43">
-        <v>5082</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2368,22 +2383,22 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>989</v>
+        <v>1080</v>
       </c>
       <c r="C44">
-        <v>27.6</v>
+        <v>39.4</v>
       </c>
       <c r="D44">
         <v>775</v>
       </c>
       <c r="E44">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="F44">
         <v>480</v>
       </c>
       <c r="G44">
-        <v>169.5</v>
+        <v>194.3</v>
       </c>
       <c r="H44">
         <v>367</v>
@@ -2398,7 +2413,7 @@
         <v>6.35</v>
       </c>
       <c r="L44">
-        <v>5934</v>
+        <v>6858</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2406,25 +2421,25 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>4316</v>
+        <v>3562</v>
       </c>
       <c r="C45">
-        <v>-9.1999999999999993</v>
+        <v>-14.1</v>
       </c>
       <c r="D45">
-        <v>4751</v>
+        <v>4149</v>
       </c>
       <c r="E45">
-        <v>27.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F45">
-        <v>3384</v>
+        <v>3231</v>
       </c>
       <c r="G45">
-        <v>50.8</v>
+        <v>52</v>
       </c>
       <c r="H45">
-        <v>2862</v>
+        <v>2343</v>
       </c>
       <c r="I45" t="s">
         <v>62</v>
@@ -2436,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="L45">
-        <v>4316</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2444,25 +2459,25 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>5948</v>
+        <v>4528</v>
       </c>
       <c r="C46">
-        <v>35.5</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="D46">
-        <v>4389</v>
+        <v>3324</v>
       </c>
       <c r="E46">
-        <v>29.8</v>
+        <v>4.5</v>
       </c>
       <c r="F46">
-        <v>4584</v>
+        <v>4331</v>
       </c>
       <c r="G46">
-        <v>45.4</v>
+        <v>28.7</v>
       </c>
       <c r="H46">
-        <v>4091</v>
+        <v>3517</v>
       </c>
       <c r="I46" t="s">
         <v>61</v>
@@ -2474,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>5948</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2482,22 +2497,22 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>20770</v>
+        <v>21247</v>
       </c>
       <c r="C47">
-        <v>-7.5</v>
+        <v>-5.4</v>
       </c>
       <c r="D47">
         <v>22458</v>
       </c>
       <c r="E47">
-        <v>-5.9</v>
+        <v>-3.7</v>
       </c>
       <c r="F47">
         <v>22065</v>
       </c>
       <c r="G47">
-        <v>14.3</v>
+        <v>17</v>
       </c>
       <c r="H47">
         <v>18165</v>
@@ -2512,7 +2527,7 @@
         <v>7.45</v>
       </c>
       <c r="L47">
-        <v>145390</v>
+        <v>158290</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2520,22 +2535,22 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>45392</v>
+        <v>45526</v>
       </c>
       <c r="C48">
-        <v>31.6</v>
+        <v>32</v>
       </c>
       <c r="D48">
         <v>34488</v>
       </c>
       <c r="E48">
-        <v>168.2</v>
+        <v>169</v>
       </c>
       <c r="F48">
         <v>16924</v>
       </c>
       <c r="G48">
-        <v>138.5</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="H48">
         <v>19036</v>
@@ -2550,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>45392</v>
+        <v>45526</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2558,22 +2573,22 @@
         <v>59</v>
       </c>
       <c r="B49">
-        <v>2301</v>
+        <v>2316</v>
       </c>
       <c r="C49">
-        <v>-10</v>
+        <v>-9.4</v>
       </c>
       <c r="D49">
         <v>2556</v>
       </c>
       <c r="E49">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="F49">
         <v>2201</v>
       </c>
       <c r="G49">
-        <v>12.7</v>
+        <v>13.5</v>
       </c>
       <c r="H49">
         <v>2041</v>
@@ -2588,7 +2603,7 @@
         <v>7.89</v>
       </c>
       <c r="L49">
-        <v>18408</v>
+        <v>18273</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">

--- a/data/OI_T-2_vs_type_disagg_20250827_v3.xlsx
+++ b/data/OI_T-2_vs_type_disagg_20250827_v3.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_2EA9EBAC1B352627FF2C4C92752A375A431E690C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{608F44EE-84E3-40C3-AE00-4EE2F4D4DCEC}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2895" windowWidth="28740" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="T-2_vs_All" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -377,8 +358,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,21 +422,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -493,7 +466,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -527,7 +500,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -562,10 +534,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -738,16 +709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -793,7 +762,7 @@
         <v>17654</v>
       </c>
       <c r="C2">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="D2">
         <v>12862</v>
@@ -823,7 +792,7 @@
         <v>17654</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -861,7 +830,7 @@
         <v>34736</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -869,7 +838,7 @@
         <v>2177</v>
       </c>
       <c r="C4">
-        <v>40.799999999999997</v>
+        <v>40.8</v>
       </c>
       <c r="D4">
         <v>1546</v>
@@ -899,7 +868,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -919,7 +888,7 @@
         <v>45218</v>
       </c>
       <c r="G5">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="H5">
         <v>36846</v>
@@ -937,7 +906,7 @@
         <v>37665</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -957,7 +926,7 @@
         <v>17574</v>
       </c>
       <c r="G6">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="H6">
         <v>14089</v>
@@ -975,7 +944,7 @@
         <v>16924</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -983,7 +952,7 @@
         <v>4384</v>
       </c>
       <c r="C7">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="D7">
         <v>3116</v>
@@ -995,7 +964,7 @@
         <v>2990</v>
       </c>
       <c r="G7">
-        <v>34.700000000000003</v>
+        <v>34.7</v>
       </c>
       <c r="H7">
         <v>3254</v>
@@ -1013,7 +982,7 @@
         <v>27838</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1051,7 +1020,7 @@
         <v>5475</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1089,7 +1058,7 @@
         <v>24117</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1124,10 +1093,10 @@
         <v>8.33</v>
       </c>
       <c r="L10">
-        <v>3648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1165,7 +1134,7 @@
         <v>4592</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1203,7 +1172,7 @@
         <v>959448</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1223,7 +1192,7 @@
         <v>7968</v>
       </c>
       <c r="G13">
-        <v>-4.0999999999999996</v>
+        <v>-4.1</v>
       </c>
       <c r="H13">
         <v>9692</v>
@@ -1241,7 +1210,7 @@
         <v>9298</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1261,7 +1230,7 @@
         <v>2543</v>
       </c>
       <c r="G14">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="H14">
         <v>1396</v>
@@ -1276,10 +1245,10 @@
         <v>8.33</v>
       </c>
       <c r="L14">
-        <v>13652</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>13653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1317,7 +1286,7 @@
         <v>40517</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1337,7 +1306,7 @@
         <v>872</v>
       </c>
       <c r="G16">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="H16">
         <v>838</v>
@@ -1355,7 +1324,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1363,7 +1332,7 @@
         <v>225</v>
       </c>
       <c r="C17">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D17">
         <v>208</v>
@@ -1393,7 +1362,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1431,7 +1400,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1469,7 +1438,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1504,10 +1473,10 @@
         <v>8.9</v>
       </c>
       <c r="L20">
-        <v>22721</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1515,7 +1484,7 @@
         <v>2512</v>
       </c>
       <c r="C21">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D21">
         <v>2288</v>
@@ -1545,7 +1514,7 @@
         <v>15951</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1565,7 +1534,7 @@
         <v>4253</v>
       </c>
       <c r="G22">
-        <v>68.599999999999994</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="H22">
         <v>2914</v>
@@ -1580,10 +1549,10 @@
         <v>6.35</v>
       </c>
       <c r="L22">
-        <v>31197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1621,7 +1590,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1659,7 +1628,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1697,7 +1666,7 @@
         <v>13900</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1735,7 +1704,7 @@
         <v>7514</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1773,7 +1742,7 @@
         <v>9753</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1793,7 +1762,7 @@
         <v>3485</v>
       </c>
       <c r="G28">
-        <v>65.099999999999994</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="H28">
         <v>2542</v>
@@ -1811,7 +1780,7 @@
         <v>4198</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1849,7 +1818,7 @@
         <v>25240</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1884,10 +1853,10 @@
         <v>8.9</v>
       </c>
       <c r="L30">
-        <v>26530</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1922,10 +1891,10 @@
         <v>8.9</v>
       </c>
       <c r="L31">
-        <v>12201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1963,7 +1932,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1971,13 +1940,13 @@
         <v>791</v>
       </c>
       <c r="C33">
-        <v>-86.4</v>
+        <v>-86.40000000000001</v>
       </c>
       <c r="D33">
         <v>5817</v>
       </c>
       <c r="E33">
-        <v>-83.4</v>
+        <v>-83.40000000000001</v>
       </c>
       <c r="F33">
         <v>4763</v>
@@ -2001,7 +1970,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2039,7 +2008,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2047,13 +2016,13 @@
         <v>1700</v>
       </c>
       <c r="C35">
-        <v>-8.6999999999999993</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="D35">
         <v>1863</v>
       </c>
       <c r="E35">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="F35">
         <v>1633</v>
@@ -2077,7 +2046,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2115,7 +2084,7 @@
         <v>16281</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2150,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2164,7 +2133,7 @@
         <v>20146</v>
       </c>
       <c r="E38">
-        <v>-37.299999999999997</v>
+        <v>-37.3</v>
       </c>
       <c r="F38">
         <v>29571</v>
@@ -2188,7 +2157,7 @@
         <v>18547</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2223,10 +2192,10 @@
         <v>6.35</v>
       </c>
       <c r="L39">
-        <v>14814</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14815</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2234,7 +2203,7 @@
         <v>11558</v>
       </c>
       <c r="C40">
-        <v>-33.700000000000003</v>
+        <v>-33.7</v>
       </c>
       <c r="D40">
         <v>17432</v>
@@ -2264,7 +2233,7 @@
         <v>11558</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -2302,7 +2271,7 @@
         <v>12412</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2322,7 +2291,7 @@
         <v>5906</v>
       </c>
       <c r="G42">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="H42">
         <v>4263</v>
@@ -2340,7 +2309,7 @@
         <v>36093</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2378,7 +2347,7 @@
         <v>5537</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -2416,7 +2385,7 @@
         <v>6858</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2430,7 +2399,7 @@
         <v>4149</v>
       </c>
       <c r="E45">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="F45">
         <v>3231</v>
@@ -2454,7 +2423,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2462,7 +2431,7 @@
         <v>4528</v>
       </c>
       <c r="C46">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="D46">
         <v>3324</v>
@@ -2492,7 +2461,7 @@
         <v>4528</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -2530,7 +2499,7 @@
         <v>158290</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2550,7 +2519,7 @@
         <v>16924</v>
       </c>
       <c r="G48">
-        <v>139.19999999999999</v>
+        <v>139.2</v>
       </c>
       <c r="H48">
         <v>19036</v>
@@ -2568,7 +2537,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -2606,7 +2575,7 @@
         <v>18273</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>60</v>
       </c>

--- a/data/OI_T-2_vs_type_disagg_20250827_v3.xlsx
+++ b/data/OI_T-2_vs_type_disagg_20250827_v3.xlsx
@@ -1166,10 +1166,10 @@
         <v>74</v>
       </c>
       <c r="K12">
-        <v>7.45</v>
+        <v>0.745</v>
       </c>
       <c r="L12">
-        <v>959448</v>
+        <v>95945</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2493,10 +2493,10 @@
         <v>109</v>
       </c>
       <c r="K47">
-        <v>7.45</v>
+        <v>0.745</v>
       </c>
       <c r="L47">
-        <v>158290</v>
+        <v>15829</v>
       </c>
     </row>
     <row r="48" spans="1:12">

--- a/data/OI_T-2_vs_type_disagg_20250827_v3.xlsx
+++ b/data/OI_T-2_vs_type_disagg_20250827_v3.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_2EA9EBACA795600B3D2D4C218D556F7558D46A78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57E276B8-727E-42C4-B784-71B721F33A4F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5970" yWindow="2175" windowWidth="28740" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T-2_vs_All" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="116">
   <si>
     <t>symbol</t>
   </si>
@@ -76,6 +95,9 @@
     <t>BOB</t>
   </si>
   <si>
+    <t>BRN</t>
+  </si>
+  <si>
     <t>EOB</t>
   </si>
   <si>
@@ -208,6 +230,9 @@
     <t>Heavy</t>
   </si>
   <si>
+    <t>Crude</t>
+  </si>
+  <si>
     <t>Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls)</t>
   </si>
   <si>
@@ -230,6 +255,9 @@
   </si>
   <si>
     <t>Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future</t>
+  </si>
+  <si>
+    <t>Brent Crude Futures</t>
   </si>
   <si>
     <t>Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future (in MTs)</t>
@@ -358,8 +386,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,13 +450,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -466,7 +502,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -500,6 +536,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -534,9 +571,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -709,14 +747,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -762,7 +802,7 @@
         <v>17654</v>
       </c>
       <c r="C2">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="D2">
         <v>12862</v>
@@ -780,10 +820,10 @@
         <v>13624</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -792,7 +832,7 @@
         <v>17654</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -818,10 +858,10 @@
         <v>2720</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K3">
         <v>8.33</v>
@@ -830,7 +870,7 @@
         <v>34736</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -838,7 +878,7 @@
         <v>2177</v>
       </c>
       <c r="C4">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="D4">
         <v>1546</v>
@@ -856,10 +896,10 @@
         <v>2751</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -868,7 +908,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -888,16 +928,16 @@
         <v>45218</v>
       </c>
       <c r="G5">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H5">
         <v>36846</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -906,7 +946,7 @@
         <v>37665</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -926,16 +966,16 @@
         <v>17574</v>
       </c>
       <c r="G6">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="H6">
         <v>14089</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -944,7 +984,7 @@
         <v>16924</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -952,7 +992,7 @@
         <v>4384</v>
       </c>
       <c r="C7">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="D7">
         <v>3116</v>
@@ -964,16 +1004,16 @@
         <v>2990</v>
       </c>
       <c r="G7">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="H7">
         <v>3254</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K7">
         <v>6.35</v>
@@ -982,7 +1022,7 @@
         <v>27838</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1008,10 +1048,10 @@
         <v>3884</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1020,7 +1060,7 @@
         <v>5475</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1046,10 +1086,10 @@
         <v>3352</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K9">
         <v>6.35</v>
@@ -1058,1558 +1098,1596 @@
         <v>24117</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10">
-        <v>438</v>
+        <v>159322</v>
       </c>
       <c r="C10">
-        <v>22.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D10">
-        <v>358</v>
+        <v>152359</v>
       </c>
       <c r="E10">
-        <v>-14.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F10">
-        <v>513</v>
+        <v>145290</v>
       </c>
       <c r="G10">
-        <v>11.2</v>
+        <v>36.4</v>
       </c>
       <c r="H10">
-        <v>394</v>
+        <v>116767</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K10">
-        <v>8.33</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>3649</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>159322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11">
-        <v>516</v>
+        <v>438</v>
       </c>
       <c r="C11">
-        <v>-12.5</v>
+        <v>22.3</v>
       </c>
       <c r="D11">
-        <v>590</v>
+        <v>358</v>
       </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>-14.6</v>
       </c>
       <c r="F11">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G11">
-        <v>17.8</v>
+        <v>11.2</v>
       </c>
       <c r="H11">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K11">
-        <v>8.9</v>
+        <v>8.33</v>
       </c>
       <c r="L11">
-        <v>4592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12">
-        <v>128785</v>
+        <v>516</v>
       </c>
       <c r="C12">
-        <v>-1.9</v>
+        <v>-12.5</v>
       </c>
       <c r="D12">
-        <v>131339</v>
+        <v>590</v>
       </c>
       <c r="E12">
-        <v>16.8</v>
+        <v>0.8</v>
       </c>
       <c r="F12">
-        <v>110268</v>
+        <v>512</v>
       </c>
       <c r="G12">
-        <v>23</v>
+        <v>17.8</v>
       </c>
       <c r="H12">
-        <v>104709</v>
+        <v>438</v>
       </c>
       <c r="I12" t="s">
         <v>62</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K12">
-        <v>0.745</v>
+        <v>8.9</v>
       </c>
       <c r="L12">
-        <v>95945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13">
-        <v>9298</v>
+        <v>128785</v>
       </c>
       <c r="C13">
-        <v>-3.9</v>
+        <v>-1.9</v>
       </c>
       <c r="D13">
-        <v>9676</v>
+        <v>131339</v>
       </c>
       <c r="E13">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="F13">
-        <v>7968</v>
+        <v>110268</v>
       </c>
       <c r="G13">
-        <v>-4.1</v>
+        <v>23</v>
       </c>
       <c r="H13">
-        <v>9692</v>
+        <v>104709</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.745</v>
       </c>
       <c r="L13">
-        <v>9298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>95945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14">
-        <v>1639</v>
+        <v>9298</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>-3.9</v>
       </c>
       <c r="D14">
-        <v>1477</v>
+        <v>9676</v>
       </c>
       <c r="E14">
-        <v>-35.5</v>
+        <v>16.7</v>
       </c>
       <c r="F14">
-        <v>2543</v>
+        <v>7968</v>
       </c>
       <c r="G14">
-        <v>17.4</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="H14">
-        <v>1396</v>
+        <v>9692</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14">
-        <v>8.33</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>13653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>9298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15">
-        <v>40517</v>
+        <v>1639</v>
       </c>
       <c r="C15">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>37004</v>
+        <v>1477</v>
       </c>
       <c r="E15">
-        <v>-32.6</v>
+        <v>-35.5</v>
       </c>
       <c r="F15">
-        <v>60152</v>
+        <v>2543</v>
       </c>
       <c r="G15">
-        <v>-9.6</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="H15">
-        <v>44817</v>
+        <v>1396</v>
       </c>
       <c r="I15" t="s">
         <v>62</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>8.33</v>
       </c>
       <c r="L15">
-        <v>40517</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>13653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16">
-        <v>1112</v>
+        <v>40517</v>
       </c>
       <c r="C16">
-        <v>-12.2</v>
+        <v>9.5</v>
       </c>
       <c r="D16">
-        <v>1267</v>
+        <v>37004</v>
       </c>
       <c r="E16">
-        <v>27.5</v>
+        <v>-32.6</v>
       </c>
       <c r="F16">
-        <v>872</v>
+        <v>60152</v>
       </c>
       <c r="G16">
-        <v>32.7</v>
+        <v>-9.6</v>
       </c>
       <c r="H16">
-        <v>838</v>
+        <v>44817</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>40517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17">
-        <v>225</v>
+        <v>1112</v>
       </c>
       <c r="C17">
-        <v>8.199999999999999</v>
+        <v>-12.2</v>
       </c>
       <c r="D17">
-        <v>208</v>
+        <v>1267</v>
       </c>
       <c r="E17">
-        <v>1025</v>
+        <v>27.5</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>872</v>
       </c>
       <c r="G17">
-        <v>675.9</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="H17">
-        <v>29</v>
+        <v>838</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="C18">
-        <v>-41.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D18">
-        <v>290</v>
+        <v>208</v>
       </c>
       <c r="E18">
-        <v>-39.5</v>
+        <v>1025</v>
       </c>
       <c r="F18">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="G18">
-        <v>-22.4</v>
+        <v>675.9</v>
       </c>
       <c r="H18">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K18">
-        <v>7.89</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1520</v>
+        <v>170</v>
       </c>
       <c r="C19">
-        <v>-47.4</v>
+        <v>-41.4</v>
       </c>
       <c r="D19">
-        <v>2892</v>
+        <v>290</v>
       </c>
       <c r="E19">
-        <v>133.1</v>
+        <v>-39.5</v>
       </c>
       <c r="F19">
-        <v>652</v>
+        <v>281</v>
       </c>
       <c r="G19">
-        <v>142</v>
+        <v>-22.4</v>
       </c>
       <c r="H19">
-        <v>628</v>
+        <v>219</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>7.89</v>
       </c>
       <c r="L19">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20">
-        <v>2553</v>
+        <v>1520</v>
       </c>
       <c r="C20">
-        <v>23.7</v>
+        <v>-47.4</v>
       </c>
       <c r="D20">
-        <v>2064</v>
+        <v>2892</v>
       </c>
       <c r="E20">
-        <v>28.2</v>
+        <v>133.1</v>
       </c>
       <c r="F20">
-        <v>1991</v>
+        <v>652</v>
       </c>
       <c r="G20">
-        <v>65.8</v>
+        <v>142</v>
       </c>
       <c r="H20">
-        <v>1540</v>
+        <v>628</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K20">
-        <v>8.9</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>22722</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21">
-        <v>2512</v>
+        <v>2553</v>
       </c>
       <c r="C21">
-        <v>9.800000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="D21">
-        <v>2288</v>
+        <v>2064</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>28.2</v>
       </c>
       <c r="F21">
-        <v>1570</v>
+        <v>1991</v>
       </c>
       <c r="G21">
-        <v>55.6</v>
+        <v>65.8</v>
       </c>
       <c r="H21">
-        <v>1614</v>
+        <v>1540</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K21">
-        <v>6.35</v>
+        <v>8.9</v>
       </c>
       <c r="L21">
-        <v>15951</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>22722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22">
-        <v>4913</v>
+        <v>2512</v>
       </c>
       <c r="C22">
-        <v>21.2</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D22">
-        <v>4055</v>
+        <v>2288</v>
       </c>
       <c r="E22">
-        <v>15.5</v>
+        <v>60</v>
       </c>
       <c r="F22">
-        <v>4253</v>
+        <v>1570</v>
       </c>
       <c r="G22">
-        <v>68.59999999999999</v>
+        <v>55.6</v>
       </c>
       <c r="H22">
-        <v>2914</v>
+        <v>1614</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K22">
         <v>6.35</v>
       </c>
       <c r="L22">
-        <v>31198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>15951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
       <c r="B23">
-        <v>221</v>
+        <v>4913</v>
       </c>
       <c r="C23">
-        <v>-9.4</v>
+        <v>21.2</v>
       </c>
       <c r="D23">
-        <v>244</v>
+        <v>4055</v>
       </c>
       <c r="E23">
-        <v>160</v>
+        <v>15.5</v>
       </c>
       <c r="F23">
-        <v>85</v>
+        <v>4253</v>
       </c>
       <c r="G23">
-        <v>28.5</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="H23">
-        <v>172</v>
+        <v>2914</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K23">
         <v>6.35</v>
       </c>
       <c r="L23">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>31198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24">
-        <v>378</v>
+        <v>221</v>
       </c>
       <c r="C24">
-        <v>-5.3</v>
+        <v>-9.4</v>
       </c>
       <c r="D24">
-        <v>399</v>
+        <v>244</v>
       </c>
       <c r="E24">
-        <v>11.2</v>
+        <v>160</v>
       </c>
       <c r="F24">
-        <v>340</v>
+        <v>85</v>
       </c>
       <c r="G24">
-        <v>6.2</v>
+        <v>28.5</v>
       </c>
       <c r="H24">
-        <v>356</v>
+        <v>172</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K24">
         <v>6.35</v>
       </c>
       <c r="L24">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25">
-        <v>2189</v>
+        <v>378</v>
       </c>
       <c r="C25">
-        <v>76.5</v>
+        <v>-5.3</v>
       </c>
       <c r="D25">
-        <v>1240</v>
+        <v>399</v>
       </c>
       <c r="E25">
-        <v>94.8</v>
+        <v>11.2</v>
       </c>
       <c r="F25">
-        <v>1124</v>
+        <v>340</v>
       </c>
       <c r="G25">
-        <v>176.7</v>
+        <v>6.2</v>
       </c>
       <c r="H25">
-        <v>791</v>
+        <v>356</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K25">
         <v>6.35</v>
       </c>
       <c r="L25">
-        <v>13900</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26">
-        <v>7514</v>
+        <v>2189</v>
       </c>
       <c r="C26">
-        <v>7.9</v>
+        <v>76.5</v>
       </c>
       <c r="D26">
-        <v>6966</v>
+        <v>1240</v>
       </c>
       <c r="E26">
-        <v>10.7</v>
+        <v>94.8</v>
       </c>
       <c r="F26">
-        <v>6786</v>
+        <v>1124</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>176.7</v>
       </c>
       <c r="H26">
-        <v>6960</v>
+        <v>791</v>
       </c>
       <c r="I26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>6.35</v>
       </c>
       <c r="L26">
-        <v>7514</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
       <c r="B27">
-        <v>9753</v>
+        <v>7514</v>
       </c>
       <c r="C27">
-        <v>-17.7</v>
+        <v>7.9</v>
       </c>
       <c r="D27">
-        <v>11850</v>
+        <v>6966</v>
       </c>
       <c r="E27">
-        <v>20.3</v>
+        <v>10.7</v>
       </c>
       <c r="F27">
-        <v>8105</v>
+        <v>6786</v>
       </c>
       <c r="G27">
-        <v>15.1</v>
+        <v>8</v>
       </c>
       <c r="H27">
-        <v>8471</v>
+        <v>6960</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>9753</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>7514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
       <c r="B28">
-        <v>4198</v>
+        <v>9753</v>
       </c>
       <c r="C28">
-        <v>-11</v>
+        <v>-17.7</v>
       </c>
       <c r="D28">
-        <v>4719</v>
+        <v>11850</v>
       </c>
       <c r="E28">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="F28">
-        <v>3485</v>
+        <v>8105</v>
       </c>
       <c r="G28">
-        <v>65.09999999999999</v>
+        <v>15.1</v>
       </c>
       <c r="H28">
-        <v>2542</v>
+        <v>8471</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>4198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>9753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
       <c r="B29">
-        <v>2836</v>
+        <v>4198</v>
       </c>
       <c r="C29">
-        <v>15.9</v>
+        <v>-11</v>
       </c>
       <c r="D29">
-        <v>2446</v>
+        <v>4719</v>
       </c>
       <c r="E29">
-        <v>-3.1</v>
+        <v>20.5</v>
       </c>
       <c r="F29">
-        <v>2927</v>
+        <v>3485</v>
       </c>
       <c r="G29">
-        <v>50</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="H29">
-        <v>1891</v>
+        <v>2542</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K29">
-        <v>8.9</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>25240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
       <c r="B30">
-        <v>2981</v>
+        <v>2836</v>
       </c>
       <c r="C30">
-        <v>12.8</v>
+        <v>15.9</v>
       </c>
       <c r="D30">
-        <v>2643</v>
+        <v>2446</v>
       </c>
       <c r="E30">
-        <v>11.8</v>
+        <v>-3.1</v>
       </c>
       <c r="F30">
-        <v>2667</v>
+        <v>2927</v>
       </c>
       <c r="G30">
-        <v>43.2</v>
+        <v>50</v>
       </c>
       <c r="H30">
-        <v>2082</v>
+        <v>1891</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K30">
         <v>8.9</v>
       </c>
       <c r="L30">
-        <v>26531</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>25240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
       <c r="B31">
-        <v>1371</v>
+        <v>2981</v>
       </c>
       <c r="C31">
-        <v>6.9</v>
+        <v>12.8</v>
       </c>
       <c r="D31">
-        <v>1283</v>
+        <v>2643</v>
       </c>
       <c r="E31">
-        <v>-12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F31">
-        <v>1561</v>
+        <v>2667</v>
       </c>
       <c r="G31">
-        <v>20.9</v>
+        <v>43.2</v>
       </c>
       <c r="H31">
-        <v>1134</v>
+        <v>2082</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K31">
         <v>8.9</v>
       </c>
       <c r="L31">
-        <v>12202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>26531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
       <c r="B32">
-        <v>2522</v>
+        <v>1371</v>
       </c>
       <c r="C32">
-        <v>-36.1</v>
+        <v>6.9</v>
       </c>
       <c r="D32">
-        <v>3945</v>
+        <v>1283</v>
       </c>
       <c r="E32">
-        <v>-23.6</v>
+        <v>-12.2</v>
       </c>
       <c r="F32">
-        <v>3299</v>
+        <v>1561</v>
       </c>
       <c r="G32">
-        <v>-22.1</v>
+        <v>20.9</v>
       </c>
       <c r="H32">
-        <v>3236</v>
+        <v>1134</v>
       </c>
       <c r="I32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>8.9</v>
       </c>
       <c r="L32">
-        <v>2522</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>12202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
       <c r="B33">
-        <v>791</v>
+        <v>2522</v>
       </c>
       <c r="C33">
-        <v>-86.40000000000001</v>
+        <v>-36.1</v>
       </c>
       <c r="D33">
-        <v>5817</v>
+        <v>3945</v>
       </c>
       <c r="E33">
-        <v>-83.40000000000001</v>
+        <v>-23.6</v>
       </c>
       <c r="F33">
-        <v>4763</v>
+        <v>3299</v>
       </c>
       <c r="G33">
-        <v>-74</v>
+        <v>-22.1</v>
       </c>
       <c r="H33">
-        <v>3043</v>
+        <v>3236</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
       <c r="B34">
-        <v>742</v>
+        <v>791</v>
       </c>
       <c r="C34">
-        <v>86</v>
+        <v>-86.4</v>
       </c>
       <c r="D34">
-        <v>399</v>
+        <v>5817</v>
       </c>
       <c r="E34">
-        <v>1.5</v>
+        <v>-83.4</v>
       </c>
       <c r="F34">
-        <v>731</v>
+        <v>4763</v>
       </c>
       <c r="G34">
-        <v>-11.6</v>
+        <v>-74</v>
       </c>
       <c r="H34">
-        <v>839</v>
+        <v>3043</v>
       </c>
       <c r="I34" t="s">
         <v>62</v>
       </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
       <c r="B35">
-        <v>1700</v>
+        <v>742</v>
       </c>
       <c r="C35">
-        <v>-8.699999999999999</v>
+        <v>86</v>
       </c>
       <c r="D35">
-        <v>1863</v>
+        <v>399</v>
       </c>
       <c r="E35">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="F35">
-        <v>1633</v>
+        <v>731</v>
       </c>
       <c r="G35">
-        <v>-7.8</v>
+        <v>-11.6</v>
       </c>
       <c r="H35">
-        <v>1844</v>
+        <v>839</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
       <c r="B36">
-        <v>2564</v>
+        <v>1700</v>
       </c>
       <c r="C36">
-        <v>-19.8</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="D36">
-        <v>3197</v>
+        <v>1863</v>
       </c>
       <c r="E36">
-        <v>-2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F36">
-        <v>2615</v>
+        <v>1633</v>
       </c>
       <c r="G36">
-        <v>7.2</v>
+        <v>-7.8</v>
       </c>
       <c r="H36">
-        <v>2392</v>
+        <v>1844</v>
       </c>
       <c r="I36" t="s">
         <v>63</v>
       </c>
       <c r="J36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K36">
-        <v>6.35</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>16281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>2564</v>
       </c>
       <c r="C37">
-        <v>-100</v>
+        <v>-19.8</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>3197</v>
+      </c>
+      <c r="E37">
+        <v>-2</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>2615</v>
       </c>
       <c r="G37">
-        <v>-100</v>
+        <v>7.2</v>
       </c>
       <c r="H37">
-        <v>25</v>
+        <v>2392</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J37" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K37">
         <v>6.35</v>
       </c>
       <c r="L37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>16281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
       <c r="B38">
-        <v>18547</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>-7.9</v>
+        <v>-100</v>
       </c>
       <c r="D38">
-        <v>20146</v>
-      </c>
-      <c r="E38">
-        <v>-37.3</v>
+        <v>28</v>
       </c>
       <c r="F38">
-        <v>29571</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>-10.3</v>
+        <v>-100</v>
       </c>
       <c r="H38">
-        <v>20667</v>
+        <v>25</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>6.35</v>
       </c>
       <c r="L38">
-        <v>18547</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
       <c r="B39">
-        <v>2333</v>
+        <v>18547</v>
       </c>
       <c r="C39">
-        <v>-14.2</v>
+        <v>-7.9</v>
       </c>
       <c r="D39">
-        <v>2720</v>
+        <v>20146</v>
       </c>
       <c r="E39">
-        <v>115</v>
+        <v>-37.299999999999997</v>
       </c>
       <c r="F39">
-        <v>1085</v>
+        <v>29571</v>
       </c>
       <c r="G39">
-        <v>224</v>
+        <v>-10.3</v>
       </c>
       <c r="H39">
-        <v>720</v>
+        <v>20667</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K39">
-        <v>6.35</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>14815</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>18547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
       <c r="B40">
-        <v>11558</v>
+        <v>2333</v>
       </c>
       <c r="C40">
-        <v>-33.7</v>
+        <v>-14.2</v>
       </c>
       <c r="D40">
-        <v>17432</v>
+        <v>2720</v>
       </c>
       <c r="E40">
-        <v>-23.9</v>
+        <v>115</v>
       </c>
       <c r="F40">
-        <v>15179</v>
+        <v>1085</v>
       </c>
       <c r="G40">
-        <v>-7.2</v>
+        <v>224</v>
       </c>
       <c r="H40">
-        <v>12449</v>
+        <v>720</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J40" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>6.35</v>
       </c>
       <c r="L40">
-        <v>11558</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>14815</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
       <c r="B41">
-        <v>12412</v>
+        <v>11558</v>
       </c>
       <c r="C41">
-        <v>37.4</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="D41">
-        <v>9034</v>
+        <v>17432</v>
       </c>
       <c r="E41">
-        <v>-5.4</v>
+        <v>-23.9</v>
       </c>
       <c r="F41">
-        <v>13115</v>
+        <v>15179</v>
       </c>
       <c r="G41">
-        <v>9</v>
+        <v>-7.2</v>
       </c>
       <c r="H41">
-        <v>11392</v>
+        <v>12449</v>
       </c>
       <c r="I41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41">
-        <v>12412</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>11558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
       <c r="B42">
-        <v>5684</v>
+        <v>12412</v>
       </c>
       <c r="C42">
-        <v>-34.1</v>
+        <v>37.4</v>
       </c>
       <c r="D42">
-        <v>8621</v>
+        <v>9034</v>
       </c>
       <c r="E42">
-        <v>-3.8</v>
+        <v>-5.4</v>
       </c>
       <c r="F42">
-        <v>5906</v>
+        <v>13115</v>
       </c>
       <c r="G42">
-        <v>33.3</v>
+        <v>9</v>
       </c>
       <c r="H42">
-        <v>4263</v>
+        <v>11392</v>
       </c>
       <c r="I42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J42" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K42">
-        <v>6.35</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>36093</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>12412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
       <c r="B43">
-        <v>872</v>
+        <v>5684</v>
       </c>
       <c r="C43">
-        <v>-17</v>
+        <v>-34.1</v>
       </c>
       <c r="D43">
-        <v>1050</v>
+        <v>8621</v>
       </c>
       <c r="E43">
-        <v>-0.2</v>
+        <v>-3.8</v>
       </c>
       <c r="F43">
-        <v>874</v>
+        <v>5906</v>
       </c>
       <c r="G43">
-        <v>81.7</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="H43">
-        <v>480</v>
+        <v>4263</v>
       </c>
       <c r="I43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K43">
         <v>6.35</v>
       </c>
       <c r="L43">
-        <v>5537</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>36093</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
       <c r="B44">
-        <v>1080</v>
+        <v>872</v>
       </c>
       <c r="C44">
-        <v>39.4</v>
+        <v>-17</v>
       </c>
       <c r="D44">
-        <v>775</v>
+        <v>1050</v>
       </c>
       <c r="E44">
-        <v>125</v>
+        <v>-0.2</v>
       </c>
       <c r="F44">
+        <v>874</v>
+      </c>
+      <c r="G44">
+        <v>81.7</v>
+      </c>
+      <c r="H44">
         <v>480</v>
       </c>
-      <c r="G44">
-        <v>194.3</v>
-      </c>
-      <c r="H44">
-        <v>367</v>
-      </c>
       <c r="I44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J44" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K44">
         <v>6.35</v>
       </c>
       <c r="L44">
-        <v>6858</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>5537</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
       <c r="B45">
-        <v>3562</v>
+        <v>1080</v>
       </c>
       <c r="C45">
-        <v>-14.1</v>
+        <v>39.4</v>
       </c>
       <c r="D45">
-        <v>4149</v>
+        <v>775</v>
       </c>
       <c r="E45">
-        <v>10.2</v>
+        <v>125</v>
       </c>
       <c r="F45">
-        <v>3231</v>
+        <v>480</v>
       </c>
       <c r="G45">
-        <v>52</v>
+        <v>194.3</v>
       </c>
       <c r="H45">
-        <v>2343</v>
+        <v>367</v>
       </c>
       <c r="I45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>6.35</v>
       </c>
       <c r="L45">
-        <v>3562</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>6858</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
       <c r="B46">
-        <v>4528</v>
+        <v>3562</v>
       </c>
       <c r="C46">
-        <v>36.2</v>
+        <v>-14.1</v>
       </c>
       <c r="D46">
-        <v>3324</v>
+        <v>4149</v>
       </c>
       <c r="E46">
-        <v>4.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F46">
-        <v>4331</v>
+        <v>3231</v>
       </c>
       <c r="G46">
-        <v>28.7</v>
+        <v>52</v>
       </c>
       <c r="H46">
-        <v>3517</v>
+        <v>2343</v>
       </c>
       <c r="I46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J46" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46">
-        <v>4528</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
       <c r="B47">
-        <v>21247</v>
+        <v>4528</v>
       </c>
       <c r="C47">
-        <v>-5.4</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="D47">
-        <v>22458</v>
+        <v>3324</v>
       </c>
       <c r="E47">
-        <v>-3.7</v>
+        <v>4.5</v>
       </c>
       <c r="F47">
-        <v>22065</v>
+        <v>4331</v>
       </c>
       <c r="G47">
-        <v>17</v>
+        <v>28.7</v>
       </c>
       <c r="H47">
-        <v>18165</v>
+        <v>3517</v>
       </c>
       <c r="I47" t="s">
         <v>62</v>
       </c>
       <c r="J47" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K47">
-        <v>0.745</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>15829</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
       <c r="B48">
-        <v>45526</v>
+        <v>21247</v>
       </c>
       <c r="C48">
-        <v>32</v>
+        <v>-5.4</v>
       </c>
       <c r="D48">
-        <v>34488</v>
+        <v>22458</v>
       </c>
       <c r="E48">
-        <v>169</v>
+        <v>-3.7</v>
       </c>
       <c r="F48">
-        <v>16924</v>
+        <v>22065</v>
       </c>
       <c r="G48">
-        <v>139.2</v>
+        <v>17</v>
       </c>
       <c r="H48">
-        <v>19036</v>
+        <v>18165</v>
       </c>
       <c r="I48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0.745</v>
       </c>
       <c r="L48">
-        <v>45526</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>15829</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
       <c r="B49">
-        <v>2316</v>
+        <v>45526</v>
       </c>
       <c r="C49">
-        <v>-9.4</v>
+        <v>32</v>
       </c>
       <c r="D49">
-        <v>2556</v>
+        <v>34488</v>
       </c>
       <c r="E49">
-        <v>5.2</v>
+        <v>169</v>
       </c>
       <c r="F49">
-        <v>2201</v>
+        <v>16924</v>
       </c>
       <c r="G49">
-        <v>13.5</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="H49">
-        <v>2041</v>
+        <v>19036</v>
       </c>
       <c r="I49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J49" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K49">
-        <v>7.89</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>18273</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>45526</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
       <c r="B50">
+        <v>2316</v>
+      </c>
+      <c r="C50">
+        <v>-9.4</v>
+      </c>
+      <c r="D50">
+        <v>2556</v>
+      </c>
+      <c r="E50">
+        <v>5.2</v>
+      </c>
+      <c r="F50">
+        <v>2201</v>
+      </c>
+      <c r="G50">
+        <v>13.5</v>
+      </c>
+      <c r="H50">
+        <v>2041</v>
+      </c>
+      <c r="I50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" t="s">
+        <v>114</v>
+      </c>
+      <c r="K50">
+        <v>7.89</v>
+      </c>
+      <c r="L50">
+        <v>18273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51">
         <v>1863</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>-28.8</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>2615</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>-3.4</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>1928</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>-20.3</v>
       </c>
-      <c r="H50">
+      <c r="H51">
         <v>2338</v>
       </c>
-      <c r="I50" t="s">
-        <v>62</v>
-      </c>
-      <c r="J50" t="s">
-        <v>112</v>
-      </c>
-      <c r="K50">
+      <c r="I51" t="s">
+        <v>63</v>
+      </c>
+      <c r="J51" t="s">
+        <v>115</v>
+      </c>
+      <c r="K51">
         <v>1</v>
       </c>
-      <c r="L50">
+      <c r="L51">
         <v>1863</v>
       </c>
     </row>
